--- a/CustomLocalization-RU/Localization/RogueTech/RU/CivilWar UrbanWarfare/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/CivilWar UrbanWarfare/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>chassisdef_Dagger_RVN-LR.Description.Details</t>
   </si>
@@ -134,12 +134,7 @@
     <t>mechdef_javelin_JVN-11D.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Fire Javelin is a dangerous 'Mech for its tonnage, especially against other light mechs and some mediums. The JVN-10F also makes a decent light 'Mech hunter-killer.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire Javelin - опасный мех для своего тоннажа, особенно против других легких и некоторых средних мехов. JVN-10F также неплохо справляется с поиском и уничтожением легких мехов.
+    <t xml:space="preserve">The Javelin is an extremely effective ambusher and superb reconnaissance mech.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
@@ -147,12 +142,7 @@
     <t>mechdef_raven_RVN-4L.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Raven was a light-weight electronic warfare BattleMech which, when it first debuted after the end of the Third Succession War, was not just one of the first truly original 'Mech designs produced in centuries, but also represented humanity's refusal to slide back technologically.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Jammer&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raven - это легковесный боевой мех-радиоподавитель, который впервые дебютировал после окончания Третьей войны за Наследство. Он был не только одним из первых действительно оригинальных мехов, созданных за столетия, но и символизировал собой отказ человечества от технологического регресса.
+    <t xml:space="preserve">This variant of the Raven incorporates the Confederation's new Stealth Armor. The 'Mech carries six tons of Stealth Armor and also uses ten double heat sinks for greater heat dissipation capabilities.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Глушитель&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
@@ -494,14 +484,16 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="74.42578125" customWidth="1" style="2"/>
-    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="74.42578125" customWidth="1" style="2"/>
+    <col min="2" max="2" width="74.42578125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="74.42578125" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -511,7 +503,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2">
@@ -522,10 +514,10 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2">
@@ -536,10 +528,10 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2">
@@ -553,7 +545,7 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2">
@@ -564,10 +556,10 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2">
@@ -578,10 +570,10 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2">
@@ -595,7 +587,7 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2">
@@ -606,10 +598,10 @@
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2">
@@ -620,10 +612,10 @@
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="2">
@@ -637,7 +629,7 @@
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="2">
@@ -648,10 +640,10 @@
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="2">
@@ -662,10 +654,10 @@
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="2">
@@ -679,7 +671,7 @@
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="2">
@@ -690,11 +682,11 @@
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -702,13 +694,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E15" s="2">
         <v>15</v>
@@ -716,12 +708,12 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="2">
